--- a/trabalho_peso_3.xlsx
+++ b/trabalho_peso_3.xlsx
@@ -16,6 +16,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>seno(t)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,8 +66,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -69,7 +108,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +153,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +188,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +370,923 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.01</v>
+      </c>
+      <c r="B2">
+        <f>SIN(A2)</f>
+        <v>9.9998333341666645E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.02</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="0">SIN(A3)</f>
+        <v>1.999866669333308E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.03</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>2.999550020249566E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.04</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>3.9989334186634161E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.05</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>4.9979169270678331E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.06</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>5.9964006479444595E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>6.9942847337532768E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.08</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>7.9914693969172695E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.09</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>8.987854919801104E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.1</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>9.9833416646828155E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.10977830083717481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.11971220728891936</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.12963414261969486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.13954311464423649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.14943813247359922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.15931820661424598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.16918234906699603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.17902957342582418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.18885889497650057</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.2</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0.19866933079506122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0.20845989984609956</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0.21822962308086932</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0.22797752353518841</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0.23770262642713458</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>0.24740395925452294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>0.25708055189215512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>0.26673143668883115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>0.27635564856411376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>0.28595222510483553</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.3</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>0.29552020666133955</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.31</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>0.3050586364434435</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>0.31456656061611776</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.33</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>0.32404302839486837</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.34</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>0.3334870921408144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.35</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>0.34289780745545134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.36</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>0.35227423327508994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.37</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>0.36161543196496199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.38</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>0.37092046941298268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.39</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>0.38018841512316143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.4</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>0.38941834230865052</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.41</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>0.39860932798442289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.42</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>0.40776045305957015</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.43</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>0.41687080242921076</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.44</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>0.42593946506599961</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.45</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>0.43496553411123023</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.46</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>0.44394810696551978</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.47</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>0.45288628537906828</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.48</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>0.4617791755414829</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0.49</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>0.47062588817115802</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.5</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>0.47942553860420301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.51</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>0.48817724688290748</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.52</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>0.49688013784373675</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.53</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>0.50553334120484694</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0.54</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>0.51413599165311319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>0.52268722893065922</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>0.5311861979208834</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>0.53963204873396919</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>0.54802393679187356</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.59</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>0.55636102291278378</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.6</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>0.56464247339503537</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.61</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>0.57286746010048128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.62</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>0.58103516053730508</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.63</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>0.5891447579422695</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.64</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>0.59719544136239211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.65</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>0.60518640573603955</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.66</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B101" si="1">SIN(A67)</f>
+        <v>0.6131168519734338</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.67</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="1"/>
+        <v>0.62098598703655972</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.68</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="1"/>
+        <v>0.62879302401846859</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.69</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="1"/>
+        <v>0.63653718222196787</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.7</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="1"/>
+        <v>0.64421768723769102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0.71</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="1"/>
+        <v>0.65183377102153661</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0.72</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="1"/>
+        <v>0.6593846719714731</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0.73</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="1"/>
+        <v>0.66686963500369789</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0.74</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="1"/>
+        <v>0.67428791162814505</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0.75</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="1"/>
+        <v>0.68163876002333412</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.76</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="1"/>
+        <v>0.68892144511055131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0.77</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="1"/>
+        <v>0.69613523862735671</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.78</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="1"/>
+        <v>0.70327941920041015</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.79</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="1"/>
+        <v>0.71035327241760782</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.8</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="1"/>
+        <v>0.71735609089952279</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.81</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="1"/>
+        <v>0.72428717437014256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0.82</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="1"/>
+        <v>0.73114582972689579</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0.83</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="1"/>
+        <v>0.73793137110996265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0.84</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="1"/>
+        <v>0.7446431199708593</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0.85</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="1"/>
+        <v>0.75128040514029271</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0.86</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="1"/>
+        <v>0.75784256289527696</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0.87</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="1"/>
+        <v>0.76432893702550508</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0.88</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="1"/>
+        <v>0.7707388788989693</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0.89</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="1"/>
+        <v>0.77707174752682384</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0.9</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="1"/>
+        <v>0.78332690962748341</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.91</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="1"/>
+        <v>0.78950373968995047</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0.92</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="1"/>
+        <v>0.79560162003636603</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0.93</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="1"/>
+        <v>0.80161994088377719</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0.94</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="1"/>
+        <v>0.80755810040511422</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0.95</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="1"/>
+        <v>0.81341550478937374</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0.96</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="1"/>
+        <v>0.81919156830099826</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0.97</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="1"/>
+        <v>0.82488571333845007</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0.98</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="1"/>
+        <v>0.83049737049197048</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0.99</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="1"/>
+        <v>0.83602597860052053</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="1"/>
+        <v>0.8414709848078965</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>